--- a/StudentDegreePlan.xlsx
+++ b/StudentDegreePlan.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21418"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533725\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\StudentDegreePlan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A649ECFE-3B77-40A3-B165-2B9F7ECB8663}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="6" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="DegreeRequirement" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <sheet name="Slot" sheetId="7" r:id="rId6"/>
     <sheet name="StudentTerm" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="90">
   <si>
     <t>DegreeRequirementID</t>
   </si>
@@ -304,13 +303,16 @@
   </si>
   <si>
     <t>S20</t>
+  </si>
+  <si>
+    <t>As slow as I can</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -713,14 +715,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="C5" sqref="A1:C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
@@ -728,7 +730,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -739,7 +741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -750,7 +752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -761,7 +763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -772,7 +774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -789,14 +791,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" style="1" customWidth="1"/>
@@ -806,7 +808,7 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -823,7 +825,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -840,7 +842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -857,7 +859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -874,7 +876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -891,7 +893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -908,7 +910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -925,7 +927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -942,7 +944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -959,7 +961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
@@ -976,7 +978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -993,7 +995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>6</v>
       </c>
@@ -1010,7 +1012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
@@ -1027,7 +1029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
@@ -1051,14 +1053,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
+    <sheetView topLeftCell="A35" workbookViewId="0">
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.28515625" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
@@ -1066,7 +1068,7 @@
     <col min="4" max="4" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -1077,7 +1079,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1088,7 +1090,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1099,7 +1101,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1110,7 +1112,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1121,7 +1123,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1132,7 +1134,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1143,7 +1145,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1154,7 +1156,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1165,7 +1167,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1176,7 +1178,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1187,7 +1189,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1198,7 +1200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1209,7 +1211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1220,7 +1222,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1231,7 +1233,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1242,7 +1244,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1253,7 +1255,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1264,7 +1266,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1275,7 +1277,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1286,7 +1288,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1297,7 +1299,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1308,7 +1310,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1319,7 +1321,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1330,7 +1332,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1341,7 +1343,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1352,7 +1354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1363,7 +1365,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1374,7 +1376,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1385,7 +1387,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1396,7 +1398,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1407,7 +1409,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1418,7 +1420,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1429,7 +1431,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1440,7 +1442,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1451,7 +1453,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1462,7 +1464,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1473,7 +1475,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1484,7 +1486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1495,7 +1497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1506,53 +1508,53 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="2:3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="2:3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="2:3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="2:3">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="2:3">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C53" s="1"/>
     </row>
   </sheetData>
@@ -1561,14 +1563,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{51F8DEE0-4D01-5F28-A812-FC0BD7CAC4A5}">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
@@ -1577,7 +1579,7 @@
     <col min="5" max="5" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -1594,7 +1596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>7251</v>
       </c>
@@ -1605,13 +1607,13 @@
         <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>7252</v>
       </c>
@@ -1628,7 +1630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>7253</v>
       </c>
@@ -1651,14 +1653,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{F9CF3CF3-643B-5BE6-8B46-32C596A47465}">
-      <selection activeCell="E5" sqref="A1:E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" style="1" customWidth="1"/>
     <col min="2" max="3" width="14.42578125" style="1" customWidth="1"/>
@@ -1667,7 +1669,7 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -1684,7 +1686,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
@@ -1698,10 +1700,10 @@
         <v>43</v>
       </c>
       <c r="E2" s="1">
-        <v>91956965</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>919569651</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>46</v>
       </c>
@@ -1718,7 +1720,7 @@
         <v>919569607</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>48</v>
       </c>
@@ -1741,21 +1743,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{78B4E459-6924-5F8B-B7BA-2DD04133E49E}">
-      <selection activeCell="F41" sqref="A1:F41"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="13.28515625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>59</v>
       </c>
@@ -1772,7 +1774,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -1789,7 +1791,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>2</v>
       </c>
@@ -1806,7 +1808,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -1823,7 +1825,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -1840,7 +1842,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -1857,7 +1859,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>6</v>
       </c>
@@ -1874,7 +1876,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>7</v>
       </c>
@@ -1891,7 +1893,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -1908,7 +1910,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>9</v>
       </c>
@@ -1925,7 +1927,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>10</v>
       </c>
@@ -1942,7 +1944,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -1959,7 +1961,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -1976,7 +1978,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -1993,7 +1995,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -2010,7 +2012,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -2027,7 +2029,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -2044,7 +2046,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -2061,7 +2063,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -2078,7 +2080,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -2095,7 +2097,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -2112,7 +2114,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>21</v>
       </c>
@@ -2129,7 +2131,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>22</v>
       </c>
@@ -2146,7 +2148,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>23</v>
       </c>
@@ -2163,7 +2165,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>24</v>
       </c>
@@ -2180,7 +2182,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>25</v>
       </c>
@@ -2197,7 +2199,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>26</v>
       </c>
@@ -2214,7 +2216,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>27</v>
       </c>
@@ -2231,7 +2233,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>28</v>
       </c>
@@ -2248,7 +2250,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>29</v>
       </c>
@@ -2265,7 +2267,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>30</v>
       </c>
@@ -2282,7 +2284,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>31</v>
       </c>
@@ -2299,7 +2301,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>32</v>
       </c>
@@ -2316,7 +2318,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>33</v>
       </c>
@@ -2333,7 +2335,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>34</v>
       </c>
@@ -2350,7 +2352,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>35</v>
       </c>
@@ -2367,7 +2369,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>36</v>
       </c>
@@ -2384,7 +2386,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>37</v>
       </c>
@@ -2401,7 +2403,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>38</v>
       </c>
@@ -2418,7 +2420,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>39</v>
       </c>
@@ -2435,7 +2437,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2458,14 +2460,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{9B253EF2-77E0-53E3-AE26-4D66ECD923F3}">
-      <selection activeCell="G16" sqref="A1:G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
@@ -2476,7 +2478,7 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1">
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>67</v>
       </c>
@@ -2496,7 +2498,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="6" customFormat="1">
+    <row r="2" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2516,7 +2518,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="6" customFormat="1">
+    <row r="3" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2536,7 +2538,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="6" customFormat="1">
+    <row r="4" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2556,7 +2558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="6" customFormat="1">
+    <row r="5" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2576,7 +2578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="6" customFormat="1">
+    <row r="6" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2596,7 +2598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="6" customFormat="1">
+    <row r="7" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -2616,7 +2618,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="6" customFormat="1">
+    <row r="8" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -2636,7 +2638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="6" customFormat="1">
+    <row r="9" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -2656,7 +2658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="6" customFormat="1">
+    <row r="10" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -2676,7 +2678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="6" customFormat="1">
+    <row r="11" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -2696,7 +2698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="6" customFormat="1">
+    <row r="12" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -2716,7 +2718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="6" customFormat="1">
+    <row r="13" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -2736,7 +2738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="6" customFormat="1">
+    <row r="14" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -2756,7 +2758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="6" customFormat="1">
+    <row r="15" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -2776,7 +2778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>15</v>
       </c>

--- a/StudentDegreePlan.xlsx
+++ b/StudentDegreePlan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DegreeRequirement" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="89">
   <si>
     <t>DegreeRequirementID</t>
   </si>
@@ -183,9 +183,6 @@
   </si>
   <si>
     <t>S533767</t>
-  </si>
-  <si>
-    <t>More subjects in semesters</t>
   </si>
   <si>
     <t>Family</t>
@@ -1566,8 +1563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1576,7 +1573,7 @@
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="23.85546875" customWidth="1"/>
     <col min="4" max="4" width="27.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1607,7 +1604,7 @@
         <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1641,7 +1638,7 @@
         <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1674,13 +1671,13 @@
         <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="E1" s="1">
         <v>919</v>
@@ -1691,10 +1688,10 @@
         <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>43</v>
@@ -1708,10 +1705,10 @@
         <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>46</v>
@@ -1725,10 +1722,10 @@
         <v>48</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>48</v>
@@ -1759,19 +1756,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1788,7 +1785,7 @@
         <v>460</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1805,7 +1802,7 @@
         <v>356</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1822,7 +1819,7 @@
         <v>563</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1839,7 +1836,7 @@
         <v>542</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1856,7 +1853,7 @@
         <v>555</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1873,7 +1870,7 @@
         <v>560</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1890,7 +1887,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1904,10 +1901,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1924,7 +1921,7 @@
         <v>691</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1941,7 +1938,7 @@
         <v>33</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1958,7 +1955,7 @@
         <v>35</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1975,7 +1972,7 @@
         <v>30</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1992,7 +1989,7 @@
         <v>22</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2009,7 +2006,7 @@
         <v>356</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -2026,7 +2023,7 @@
         <v>563</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2043,7 +2040,7 @@
         <v>542</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2060,7 +2057,7 @@
         <v>460</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2077,7 +2074,7 @@
         <v>560</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2094,7 +2091,7 @@
         <v>555</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2111,7 +2108,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2128,7 +2125,7 @@
         <v>618</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2145,7 +2142,7 @@
         <v>691</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2162,7 +2159,7 @@
         <v>618</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2179,7 +2176,7 @@
         <v>692</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2196,7 +2193,7 @@
         <v>20</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2213,7 +2210,7 @@
         <v>6</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2230,7 +2227,7 @@
         <v>460</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2247,7 +2244,7 @@
         <v>356</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2264,7 +2261,7 @@
         <v>542</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2281,7 +2278,7 @@
         <v>563</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2295,10 +2292,10 @@
         <v>2</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2315,7 +2312,7 @@
         <v>560</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2332,7 +2329,7 @@
         <v>6</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2349,7 +2346,7 @@
         <v>555</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2366,7 +2363,7 @@
         <v>33</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -2383,7 +2380,7 @@
         <v>691</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2400,7 +2397,7 @@
         <v>664</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2417,7 +2414,7 @@
         <v>618</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2434,7 +2431,7 @@
         <v>692</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2451,7 +2448,7 @@
         <v>35</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2463,7 +2460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -2480,22 +2477,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2509,10 +2506,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>71</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="F2" s="5">
         <v>4</v>
@@ -2529,10 +2526,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="F3" s="5">
         <v>3</v>
@@ -2549,10 +2546,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="F4" s="5">
         <v>0</v>
@@ -2569,10 +2566,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="F5" s="5">
         <v>3</v>
@@ -2589,10 +2586,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="F6" s="5">
         <v>2</v>
@@ -2609,10 +2606,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>78</v>
       </c>
       <c r="F7" s="6">
         <v>4</v>
@@ -2629,10 +2626,10 @@
         <v>2</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="F8" s="6">
         <v>3</v>
@@ -2649,10 +2646,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>82</v>
       </c>
       <c r="F9" s="6">
         <v>2</v>
@@ -2669,10 +2666,10 @@
         <v>4</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>84</v>
       </c>
       <c r="F10" s="6">
         <v>2</v>
@@ -2689,10 +2686,10 @@
         <v>5</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>86</v>
       </c>
       <c r="F11" s="6">
         <v>2</v>
@@ -2709,10 +2706,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F12" s="7">
         <v>4</v>
@@ -2729,10 +2726,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="F13" s="7">
         <v>0</v>
@@ -2749,10 +2746,10 @@
         <v>3</v>
       </c>
       <c r="D14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="F14" s="7">
         <v>3</v>
@@ -2769,10 +2766,10 @@
         <v>4</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F15" s="7">
         <v>3</v>
@@ -2789,10 +2786,10 @@
         <v>5</v>
       </c>
       <c r="D16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="F16" s="7">
         <v>3</v>

--- a/StudentDegreePlan.xlsx
+++ b/StudentDegreePlan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="DegreeRequirement" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="87">
   <si>
     <t>DegreeRequirementID</t>
   </si>
@@ -137,13 +137,7 @@
     <t>643 or 644 Mobile</t>
   </si>
   <si>
-    <t>E1</t>
-  </si>
-  <si>
     <t>Elective1</t>
-  </si>
-  <si>
-    <t>E2</t>
   </si>
   <si>
     <t>Elective2</t>
@@ -392,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -433,6 +427,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -792,7 +787,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,7 +961,7 @@
         <v>29</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -1010,11 +1005,11 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -1027,11 +1022,11 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>35</v>
+      <c r="A14" s="1">
+        <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -1053,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,491 +1062,554 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14">
         <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14">
         <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14">
+        <v>1</v>
+      </c>
+      <c r="C4" s="14">
         <v>542</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" s="14">
+        <v>1</v>
+      </c>
+      <c r="C5" s="14">
         <v>563</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="14">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B6" s="14">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14">
         <v>560</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="14">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7" s="14">
+        <v>1</v>
+      </c>
+      <c r="C7" s="14">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14">
+        <v>1</v>
+      </c>
+      <c r="C8" s="14">
         <v>618</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14">
+        <v>1</v>
+      </c>
+      <c r="C9" s="14">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="14">
+        <v>1</v>
+      </c>
+      <c r="C10" s="14">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+      <c r="B11" s="14">
+        <v>1</v>
+      </c>
+      <c r="C11" s="14">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
+        <v>11</v>
+      </c>
+      <c r="B12" s="14">
+        <v>1</v>
+      </c>
+      <c r="C12" s="14">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
+        <v>12</v>
+      </c>
+      <c r="B13" s="14">
+        <v>1</v>
+      </c>
+      <c r="C13" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>14</v>
+      </c>
+      <c r="B15" s="14">
+        <v>2</v>
+      </c>
+      <c r="C15" s="14">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>15</v>
+      </c>
+      <c r="B16" s="14">
+        <v>2</v>
+      </c>
+      <c r="C16" s="14">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>16</v>
+      </c>
+      <c r="B17" s="14">
+        <v>2</v>
+      </c>
+      <c r="C17" s="14">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>17</v>
+      </c>
+      <c r="B18" s="14">
+        <v>2</v>
+      </c>
+      <c r="C18" s="14">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
+        <v>18</v>
+      </c>
+      <c r="B19" s="14">
+        <v>2</v>
+      </c>
+      <c r="C19" s="14">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
+        <v>19</v>
+      </c>
+      <c r="B20" s="14">
+        <v>2</v>
+      </c>
+      <c r="C20" s="14">
         <v>618</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
+        <v>20</v>
+      </c>
+      <c r="B21" s="14">
+        <v>2</v>
+      </c>
+      <c r="C21" s="14">
         <v>555</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
+        <v>21</v>
+      </c>
+      <c r="B22" s="14">
+        <v>2</v>
+      </c>
+      <c r="C22" s="14">
         <v>691</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
+        <v>22</v>
+      </c>
+      <c r="B23" s="14">
+        <v>2</v>
+      </c>
+      <c r="C23" s="14">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
+        <v>23</v>
+      </c>
+      <c r="B24" s="14">
+        <v>2</v>
+      </c>
+      <c r="C24" s="14">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
+        <v>24</v>
+      </c>
+      <c r="B25" s="14">
+        <v>2</v>
+      </c>
+      <c r="C25" s="14">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
+        <v>25</v>
+      </c>
+      <c r="B26" s="14">
+        <v>2</v>
+      </c>
+      <c r="C26" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
+        <v>26</v>
+      </c>
+      <c r="B27" s="14">
+        <v>3</v>
+      </c>
+      <c r="C27" s="14">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
+        <v>27</v>
+      </c>
+      <c r="B28" s="14">
+        <v>3</v>
+      </c>
+      <c r="C28" s="14">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
+        <v>28</v>
+      </c>
+      <c r="B29" s="14">
+        <v>3</v>
+      </c>
+      <c r="C29" s="14">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
+        <v>29</v>
+      </c>
+      <c r="B30" s="14">
+        <v>3</v>
+      </c>
+      <c r="C30" s="14">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="14">
+        <v>30</v>
+      </c>
+      <c r="B31" s="14">
+        <v>3</v>
+      </c>
+      <c r="C31" s="14">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="14">
+        <v>31</v>
+      </c>
+      <c r="B32" s="14">
+        <v>3</v>
+      </c>
+      <c r="C32" s="14">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="14">
+        <v>32</v>
+      </c>
+      <c r="B33" s="14">
+        <v>3</v>
+      </c>
+      <c r="C33" s="14">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="14">
+        <v>33</v>
+      </c>
+      <c r="B34" s="14">
+        <v>3</v>
+      </c>
+      <c r="C34" s="14">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="14">
+        <v>34</v>
+      </c>
+      <c r="B35" s="14">
+        <v>3</v>
+      </c>
+      <c r="C35" s="14">
         <v>692</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="14">
+        <v>35</v>
+      </c>
+      <c r="B36" s="14">
+        <v>3</v>
+      </c>
+      <c r="C36" s="14">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="14">
+        <v>36</v>
+      </c>
+      <c r="B37" s="14">
+        <v>3</v>
+      </c>
+      <c r="C37" s="14">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="14">
+        <v>37</v>
+      </c>
+      <c r="B38" s="14">
+        <v>3</v>
+      </c>
+      <c r="C38" s="14">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1">
-        <v>2</v>
-      </c>
-      <c r="C17" s="1">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="14">
+        <v>38</v>
+      </c>
+      <c r="B39" s="14">
+        <v>4</v>
+      </c>
+      <c r="C39" s="14">
         <v>542</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1">
-        <v>2</v>
-      </c>
-      <c r="C18" s="1">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="14">
+        <v>39</v>
+      </c>
+      <c r="B40" s="14">
+        <v>4</v>
+      </c>
+      <c r="C40" s="14">
         <v>563</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1">
-        <v>2</v>
-      </c>
-      <c r="C19" s="1">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="14">
+        <v>40</v>
+      </c>
+      <c r="B41" s="14">
+        <v>4</v>
+      </c>
+      <c r="C41" s="14">
         <v>560</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1">
-        <v>2</v>
-      </c>
-      <c r="C20" s="1">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="14">
+        <v>41</v>
+      </c>
+      <c r="B42" s="14">
+        <v>4</v>
+      </c>
+      <c r="C42" s="14">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="14">
+        <v>42</v>
+      </c>
+      <c r="B43" s="14">
+        <v>4</v>
+      </c>
+      <c r="C43" s="14">
         <v>618</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="14">
+        <v>43</v>
+      </c>
+      <c r="B44" s="14">
+        <v>4</v>
+      </c>
+      <c r="C44" s="14">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="14">
+        <v>44</v>
+      </c>
+      <c r="B45" s="14">
+        <v>4</v>
+      </c>
+      <c r="C45" s="14">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="14">
+        <v>45</v>
+      </c>
+      <c r="B46" s="14">
+        <v>4</v>
+      </c>
+      <c r="C46" s="14">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="14">
+        <v>46</v>
+      </c>
+      <c r="B47" s="14">
+        <v>4</v>
+      </c>
+      <c r="C47" s="14">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="14">
+        <v>47</v>
+      </c>
+      <c r="B48" s="14">
+        <v>4</v>
+      </c>
+      <c r="C48" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="14">
+        <v>48</v>
+      </c>
+      <c r="B49" s="14">
+        <v>4</v>
+      </c>
+      <c r="C49" s="14">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
-        <v>2</v>
-      </c>
-      <c r="C21" s="1">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1">
-        <v>2</v>
-      </c>
-      <c r="C22" s="1">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1">
-        <v>2</v>
-      </c>
-      <c r="C23" s="1">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1">
-        <v>2</v>
-      </c>
-      <c r="C24" s="1">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1">
-        <v>2</v>
-      </c>
-      <c r="C25" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1">
-        <v>2</v>
-      </c>
-      <c r="C26" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1">
-        <v>2</v>
-      </c>
-      <c r="C27" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1">
-        <v>3</v>
-      </c>
-      <c r="C28" s="1">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1">
-        <v>3</v>
-      </c>
-      <c r="C29" s="1">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1">
-        <v>3</v>
-      </c>
-      <c r="C30" s="1">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1">
-        <v>3</v>
-      </c>
-      <c r="C31" s="1">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1">
-        <v>3</v>
-      </c>
-      <c r="C32" s="1">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1">
-        <v>3</v>
-      </c>
-      <c r="C33" s="1">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1">
-        <v>3</v>
-      </c>
-      <c r="C34" s="1">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1">
-        <v>3</v>
-      </c>
-      <c r="C35" s="1">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1">
-        <v>3</v>
-      </c>
-      <c r="C36" s="1">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1">
-        <v>3</v>
-      </c>
-      <c r="C37" s="1">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1">
-        <v>3</v>
-      </c>
-      <c r="C38" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1">
-        <v>3</v>
-      </c>
-      <c r="C39" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1">
-        <v>3</v>
-      </c>
-      <c r="C40" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C53" s="1"/>
     </row>
   </sheetData>
@@ -1563,7 +1621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1578,16 +1636,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>40</v>
-      </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" t="s">
-        <v>42</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -1598,13 +1656,13 @@
         <v>7251</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1615,13 +1673,13 @@
         <v>7252</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1632,13 +1690,13 @@
         <v>7253</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1668,16 +1726,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="E1" s="1">
         <v>919</v>
@@ -1685,16 +1743,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E2" s="1">
         <v>919569651</v>
@@ -1702,16 +1760,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3" s="1">
         <v>919569607</v>
@@ -1719,16 +1777,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E4" s="1">
         <v>919565612</v>
@@ -1743,8 +1801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1756,19 +1814,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1785,7 +1843,7 @@
         <v>460</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1802,7 +1860,7 @@
         <v>356</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1819,7 +1877,7 @@
         <v>563</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1836,7 +1894,7 @@
         <v>542</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1853,7 +1911,7 @@
         <v>555</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1870,7 +1928,7 @@
         <v>560</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1887,7 +1945,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1901,10 +1959,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1921,7 +1979,7 @@
         <v>691</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1934,11 +1992,11 @@
       <c r="C11" s="1">
         <v>4</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>33</v>
+      <c r="D11" s="1">
+        <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1951,11 +2009,11 @@
       <c r="C12" s="1">
         <v>5</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>35</v>
+      <c r="D12" s="1">
+        <v>20</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1968,11 +2026,11 @@
       <c r="C13" s="1">
         <v>5</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>30</v>
+      <c r="D13" s="1">
+        <v>692</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1985,11 +2043,11 @@
       <c r="C14" s="1">
         <v>5</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>22</v>
+      <c r="D14" s="1">
+        <v>664</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2006,7 +2064,7 @@
         <v>356</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -2023,7 +2081,7 @@
         <v>563</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2040,7 +2098,7 @@
         <v>542</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2057,7 +2115,7 @@
         <v>460</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2074,7 +2132,7 @@
         <v>560</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2091,7 +2149,7 @@
         <v>555</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2108,7 +2166,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2125,7 +2183,7 @@
         <v>618</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2142,7 +2200,7 @@
         <v>691</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2159,7 +2217,7 @@
         <v>618</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2176,7 +2234,7 @@
         <v>692</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2193,7 +2251,7 @@
         <v>20</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2210,7 +2268,7 @@
         <v>6</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2227,7 +2285,7 @@
         <v>460</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2244,7 +2302,7 @@
         <v>356</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2261,7 +2319,7 @@
         <v>542</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2278,7 +2336,7 @@
         <v>563</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2292,10 +2350,10 @@
         <v>2</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2312,7 +2370,7 @@
         <v>560</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2329,7 +2387,7 @@
         <v>6</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2346,7 +2404,7 @@
         <v>555</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2359,11 +2417,11 @@
       <c r="C36" s="1">
         <v>4</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>33</v>
+      <c r="D36" s="1">
+        <v>10</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -2380,7 +2438,7 @@
         <v>691</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2397,7 +2455,7 @@
         <v>664</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2414,7 +2472,7 @@
         <v>618</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2431,7 +2489,7 @@
         <v>692</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2444,11 +2502,11 @@
       <c r="C41" s="1">
         <v>5</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>35</v>
+      <c r="D41" s="1">
+        <v>20</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2477,22 +2535,22 @@
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2506,10 +2564,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F2" s="5">
         <v>4</v>
@@ -2526,10 +2584,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F3" s="5">
         <v>3</v>
@@ -2546,10 +2604,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F4" s="5">
         <v>0</v>
@@ -2566,10 +2624,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F5" s="5">
         <v>3</v>
@@ -2580,16 +2638,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="5">
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F6" s="5">
         <v>2</v>
@@ -2600,16 +2658,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F7" s="6">
         <v>4</v>
@@ -2620,16 +2678,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C8" s="6">
         <v>2</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F8" s="6">
         <v>3</v>
@@ -2640,16 +2698,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C9" s="6">
         <v>3</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F9" s="6">
         <v>2</v>
@@ -2660,16 +2718,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C10" s="6">
         <v>4</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F10" s="6">
         <v>2</v>
@@ -2680,16 +2738,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C11" s="6">
         <v>5</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F11" s="6">
         <v>2</v>
@@ -2706,10 +2764,10 @@
         <v>1</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F12" s="7">
         <v>4</v>
@@ -2726,10 +2784,10 @@
         <v>2</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F13" s="7">
         <v>0</v>
@@ -2746,10 +2804,10 @@
         <v>3</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7">
         <v>3</v>
@@ -2766,10 +2824,10 @@
         <v>4</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F15" s="7">
         <v>3</v>
@@ -2786,10 +2844,10 @@
         <v>5</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F16" s="7">
         <v>3</v>

--- a/StudentDegreePlan.xlsx
+++ b/StudentDegreePlan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="DegreeRequirement" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="87">
   <si>
     <t>DegreeRequirementID</t>
   </si>
@@ -1048,7 +1048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -1711,8 +1711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1742,8 +1742,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>41</v>
+      <c r="A2" s="1">
+        <v>533725</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>50</v>
@@ -1759,8 +1759,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>44</v>
+      <c r="A3" s="1">
+        <v>534049</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>52</v>
@@ -1776,8 +1776,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>46</v>
+      <c r="A4" s="1">
+        <v>533767</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>54</v>

--- a/StudentDegreePlan.xlsx
+++ b/StudentDegreePlan.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533725\Documents\44663\StudentDegreePlan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S534049\Documents\44663\StudentDegreePlan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="DegreeRequirement" sheetId="1" r:id="rId1"/>
+    <sheet name="Degree" sheetId="1" r:id="rId1"/>
     <sheet name="Credit" sheetId="3" r:id="rId2"/>
     <sheet name="DegreeCredit" sheetId="4" r:id="rId3"/>
     <sheet name="DegreePlan" sheetId="5" r:id="rId4"/>
@@ -30,276 +30,297 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="91">
-  <si>
-    <t>DegreeAbbrev</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="98">
   <si>
     <t>NumberOfTerms</t>
   </si>
   <si>
-    <t>ACS+DB</t>
-  </si>
-  <si>
     <t>ACS+NF</t>
   </si>
   <si>
     <t>ACS</t>
   </si>
   <si>
+    <t>CreditName</t>
+  </si>
+  <si>
+    <t>IsSummer</t>
+  </si>
+  <si>
+    <t>IsSpring</t>
+  </si>
+  <si>
+    <t>IsFall</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Network Fundamentals</t>
+  </si>
+  <si>
+    <t>OOP</t>
+  </si>
+  <si>
+    <t>Web Apps</t>
+  </si>
+  <si>
+    <t>Advanced Databases</t>
+  </si>
+  <si>
+    <t>User Experince Design</t>
+  </si>
+  <si>
+    <t>ProjectManagement</t>
+  </si>
+  <si>
+    <t>Network Security</t>
+  </si>
+  <si>
+    <t>GDP1</t>
+  </si>
+  <si>
+    <t>GDP2</t>
+  </si>
+  <si>
+    <t>643 or 644 Mobile</t>
+  </si>
+  <si>
+    <t>Elective1</t>
+  </si>
+  <si>
+    <t>Elective2</t>
+  </si>
+  <si>
+    <t>DegreePlanName</t>
+  </si>
+  <si>
+    <t>S533725</t>
+  </si>
+  <si>
+    <t>Slow and easy</t>
+  </si>
+  <si>
+    <t>S534049</t>
+  </si>
+  <si>
+    <t>Super Fast</t>
+  </si>
+  <si>
+    <t>S533767</t>
+  </si>
+  <si>
+    <t>Mamidi</t>
+  </si>
+  <si>
+    <t>Prakash</t>
+  </si>
+  <si>
+    <t>Atmakuri</t>
+  </si>
+  <si>
+    <t>Haritha</t>
+  </si>
+  <si>
+    <t>Badisa</t>
+  </si>
+  <si>
+    <t>SaiRam</t>
+  </si>
+  <si>
+    <t>Term</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>TermAbbr</t>
+  </si>
+  <si>
+    <t>TermName</t>
+  </si>
+  <si>
+    <t>No.OfCoursesTaken</t>
+  </si>
+  <si>
+    <t>F18</t>
+  </si>
+  <si>
+    <t>Fall2018</t>
+  </si>
+  <si>
+    <t>s19</t>
+  </si>
+  <si>
+    <t>Spring2019</t>
+  </si>
+  <si>
+    <t>Su19</t>
+  </si>
+  <si>
+    <t>Summer2019</t>
+  </si>
+  <si>
+    <t>F19</t>
+  </si>
+  <si>
+    <t>Fall2019</t>
+  </si>
+  <si>
+    <t>s20</t>
+  </si>
+  <si>
+    <t>Spring2020</t>
+  </si>
+  <si>
+    <t>Su20</t>
+  </si>
+  <si>
+    <t>Summer2020</t>
+  </si>
+  <si>
+    <t>F20</t>
+  </si>
+  <si>
+    <t>Fall2020</t>
+  </si>
+  <si>
+    <t>S21</t>
+  </si>
+  <si>
+    <t>Spring2021</t>
+  </si>
+  <si>
+    <t>S19</t>
+  </si>
+  <si>
+    <t>S20</t>
+  </si>
+  <si>
+    <t>DegreeName</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>ACS + 2</t>
+  </si>
+  <si>
+    <t>MS ACS+ 2</t>
+  </si>
+  <si>
+    <t>MS ACS + DB</t>
+  </si>
+  <si>
+    <t>MS ACS + NF</t>
+  </si>
+  <si>
+    <t>MS ACS</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>Take a break in summer</t>
+  </si>
+  <si>
+    <t>No break</t>
+  </si>
+  <si>
+    <t>Take less courses per semester</t>
+  </si>
+  <si>
+    <t>More subjects in semesters</t>
+  </si>
+  <si>
+    <t>Slow and Consistent</t>
+  </si>
+  <si>
+    <t>ACS+DB(U,10)</t>
+  </si>
+  <si>
+    <t>CreditAbv</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>NF</t>
+  </si>
+  <si>
+    <t>664-UX</t>
+  </si>
+  <si>
+    <t>618-PM</t>
+  </si>
+  <si>
+    <t>555-NS</t>
+  </si>
+  <si>
+    <t>691-GDP1</t>
+  </si>
+  <si>
+    <t>692-GDP2</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>As fast as I Can</t>
+  </si>
+  <si>
+    <t>FamilyName</t>
+  </si>
+  <si>
+    <t>GivenName</t>
+  </si>
+  <si>
+    <t>SID</t>
+  </si>
+  <si>
+    <t>CatPawsID</t>
+  </si>
+  <si>
+    <t>DegreeAbv</t>
+  </si>
+  <si>
+    <t>DegreeID</t>
+  </si>
+  <si>
     <t>CreditID</t>
   </si>
   <si>
-    <t>CreditName</t>
-  </si>
-  <si>
-    <t>IsSummer</t>
-  </si>
-  <si>
-    <t>IsSpring</t>
-  </si>
-  <si>
-    <t>IsFall</t>
-  </si>
-  <si>
-    <t>Database</t>
-  </si>
-  <si>
-    <t>Network Fundamentals</t>
-  </si>
-  <si>
-    <t>OOP</t>
-  </si>
-  <si>
-    <t>Web Apps</t>
-  </si>
-  <si>
-    <t>Advanced Databases</t>
-  </si>
-  <si>
-    <t>User Experince Design</t>
-  </si>
-  <si>
-    <t>ProjectManagement</t>
-  </si>
-  <si>
-    <t>Network Security</t>
-  </si>
-  <si>
-    <t>GDP1</t>
-  </si>
-  <si>
-    <t>GDP2</t>
-  </si>
-  <si>
-    <t>643 or 644 Mobile</t>
-  </si>
-  <si>
-    <t>Elective1</t>
-  </si>
-  <si>
-    <t>Elective2</t>
-  </si>
-  <si>
     <t>DegreeCreditID</t>
   </si>
   <si>
-    <t>DegreeID</t>
-  </si>
-  <si>
     <t>DegreePlanID</t>
   </si>
   <si>
     <t>StudentID</t>
   </si>
   <si>
-    <t>DegereePlanAbbrev</t>
-  </si>
-  <si>
-    <t>DegreePlanName</t>
-  </si>
-  <si>
-    <t>S533725</t>
-  </si>
-  <si>
-    <t>Slow and easy</t>
-  </si>
-  <si>
-    <t>S534049</t>
-  </si>
-  <si>
-    <t>Super Fast</t>
-  </si>
-  <si>
-    <t>S533767</t>
-  </si>
-  <si>
-    <t>Family</t>
-  </si>
-  <si>
-    <t>Given</t>
-  </si>
-  <si>
-    <t>Snumber</t>
-  </si>
-  <si>
-    <t>Mamidi</t>
-  </si>
-  <si>
-    <t>Prakash</t>
-  </si>
-  <si>
-    <t>Atmakuri</t>
-  </si>
-  <si>
-    <t>Haritha</t>
-  </si>
-  <si>
-    <t>Badisa</t>
-  </si>
-  <si>
-    <t>SaiRam</t>
+    <t>DegereePlanAbv</t>
   </si>
   <si>
     <t>SlotID</t>
   </si>
   <si>
     <t>DegreePlan</t>
-  </si>
-  <si>
-    <t>Term</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>TermAbbr</t>
-  </si>
-  <si>
-    <t>TermName</t>
-  </si>
-  <si>
-    <t>No.OfCoursesTaken</t>
-  </si>
-  <si>
-    <t>F18</t>
-  </si>
-  <si>
-    <t>Fall2018</t>
-  </si>
-  <si>
-    <t>s19</t>
-  </si>
-  <si>
-    <t>Spring2019</t>
-  </si>
-  <si>
-    <t>Su19</t>
-  </si>
-  <si>
-    <t>Summer2019</t>
-  </si>
-  <si>
-    <t>F19</t>
-  </si>
-  <si>
-    <t>Fall2019</t>
-  </si>
-  <si>
-    <t>s20</t>
-  </si>
-  <si>
-    <t>Spring2020</t>
-  </si>
-  <si>
-    <t>Su20</t>
-  </si>
-  <si>
-    <t>Summer2020</t>
-  </si>
-  <si>
-    <t>F20</t>
-  </si>
-  <si>
-    <t>Fall2020</t>
-  </si>
-  <si>
-    <t>S21</t>
-  </si>
-  <si>
-    <t>Spring2021</t>
-  </si>
-  <si>
-    <t>S19</t>
-  </si>
-  <si>
-    <t>S20</t>
-  </si>
-  <si>
-    <t>DegreeName</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>ACS + 2</t>
-  </si>
-  <si>
-    <t>MS ACS+ 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> new Degree{DegreeID = 1,DegreeAbbrev='ACS + 2',DegreeName='MS ACS+ 2'}</t>
-  </si>
-  <si>
-    <t>MS ACS + DB</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> new Degree{DegreeID = 2,DegreeAbbrev='ACS+DB',DegreeName='MS ACS + DB'}</t>
-  </si>
-  <si>
-    <t>MS ACS + NF</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> new Degree{DegreeID = 3,DegreeAbbrev='ACS+NF',DegreeName='MS ACS + NF'}</t>
-  </si>
-  <si>
-    <t>MS ACS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> new Degree{DegreeID = 4,DegreeAbbrev='ACS',DegreeName='MS ACS'}</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>Take a break in summer</t>
-  </si>
-  <si>
-    <t>No break</t>
-  </si>
-  <si>
-    <t>Take less courses per semester</t>
-  </si>
-  <si>
-    <t>More subjects in semesters</t>
-  </si>
-  <si>
-    <t>Slow and Consistent</t>
   </si>
   <si>
     <t>StudentTermID</t>
@@ -767,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,24 +797,26 @@
     <col min="1" max="1" width="37.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="18" style="1" customWidth="1"/>
+    <col min="5" max="5" width="80.5703125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>1</v>
-      </c>
       <c r="E1" s="9" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -801,16 +824,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D2" s="7">
         <v>5</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>76</v>
+      <c r="E2" s="10" t="str">
+        <f>" new Credit{"&amp;$A$1&amp;" = "&amp;A2 &amp; " , "&amp;$B$1 &amp; " = '" &amp;B2&amp;"' , "&amp;$C$1&amp;" = '" &amp;C2&amp;"'},"</f>
+        <v xml:space="preserve"> new Credit{DegreeID = 1 , DegreeAbv = 'ACS + 2' , DegreeName = 'MS ACS+ 2'},</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -818,16 +842,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D3" s="7">
         <v>5</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>78</v>
+      <c r="E3" s="10" t="str">
+        <f t="shared" ref="E3:E5" si="0">" new Credit{"&amp;$A$1&amp;" = "&amp;A3 &amp; " , "&amp;$B$1 &amp; " = '" &amp;B3&amp;"' , "&amp;$C$1&amp;" = '" &amp;C3&amp;"'},"</f>
+        <v xml:space="preserve"> new Credit{DegreeID = 2 , DegreeAbv = 'ACS+DB(U,10)' , DegreeName = 'MS ACS + DB'},</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -835,16 +860,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="D4" s="7">
         <v>5</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>80</v>
+      <c r="E4" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Credit{DegreeID = 3 , DegreeAbv = 'ACS+NF' , DegreeName = 'MS ACS + NF'},</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -852,16 +878,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="D5" s="7">
         <v>5</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>82</v>
+      <c r="E5" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Credit{DegreeID = 4 , DegreeAbv = 'ACS' , DegreeName = 'MS ACS'},</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -885,258 +912,357 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="13.140625" style="27" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" customWidth="1"/>
+    <col min="7" max="7" width="116.5703125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="G1" s="28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="27">
+        <v>460</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D2" s="11">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11">
+        <v>1</v>
+      </c>
+      <c r="F2" s="11">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="str">
+        <f>" new Credit{"&amp;$A$1&amp;" ="&amp;A2&amp;" , "&amp;$B$1&amp;" ="&amp;B2&amp;" , "&amp;$C$1&amp;" ="&amp;C2&amp;" , "&amp;$D$1&amp;" ="&amp;D2&amp;", "&amp;$E$1&amp;" ="&amp;E2&amp;" , "&amp;$F$1&amp;" = "&amp;F2&amp;"},"</f>
+        <v xml:space="preserve"> new Credit{CreditID =460 , CreditAbv =DB , CreditName =Database , IsSummer =0, IsSpring =1 , IsFall = 1},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="27">
+        <v>356</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="D3" s="11">
+        <v>0</v>
+      </c>
+      <c r="E3" s="11">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11">
+        <v>1</v>
+      </c>
+      <c r="G3" s="27" t="str">
+        <f t="shared" ref="G3:G14" si="0">" new Credit{"&amp;$A$1&amp;" ="&amp;A3&amp;" , "&amp;$B$1&amp;" ="&amp;B3&amp;" , "&amp;$C$1&amp;" ="&amp;C3&amp;" , "&amp;$D$1&amp;" ="&amp;D3&amp;", "&amp;$E$1&amp;" ="&amp;E3&amp;" , "&amp;$F$1&amp;" = "&amp;F3&amp;"},"</f>
+        <v xml:space="preserve"> new Credit{CreditID =356 , CreditAbv =NF , CreditName =Network Fundamentals , IsSummer =0, IsSpring =1 , IsFall = 1},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="27">
+        <v>542</v>
+      </c>
+      <c r="B4" s="11">
+        <v>542</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
-        <v>460</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="D4" s="11">
+        <v>0</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1</v>
+      </c>
+      <c r="F4" s="11">
+        <v>1</v>
+      </c>
+      <c r="G4" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Credit{CreditID =542 , CreditAbv =542 , CreditName =OOP , IsSummer =0, IsSpring =1 , IsFall = 1},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="27">
+        <v>563</v>
+      </c>
+      <c r="B5" s="11">
+        <v>563</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="11">
+      <c r="D5" s="11">
         <v>0</v>
       </c>
-      <c r="D2" s="11">
-        <v>1</v>
-      </c>
-      <c r="E2" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
-        <v>356</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="E5" s="11">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1</v>
+      </c>
+      <c r="G5" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Credit{CreditID =563 , CreditAbv =563 , CreditName =Web Apps , IsSummer =0, IsSpring =1 , IsFall = 1},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="27">
+        <v>560</v>
+      </c>
+      <c r="B6" s="11">
+        <v>560</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="11">
+      <c r="D6" s="11">
+        <v>1</v>
+      </c>
+      <c r="E6" s="11">
+        <v>1</v>
+      </c>
+      <c r="F6" s="11">
+        <v>1</v>
+      </c>
+      <c r="G6" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Credit{CreditID =560 , CreditAbv =560 , CreditName =Advanced Databases , IsSummer =1, IsSpring =1 , IsFall = 1},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="27">
+        <v>664</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="11">
         <v>0</v>
       </c>
-      <c r="D3" s="11">
-        <v>1</v>
-      </c>
-      <c r="E3" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>542</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="11">
-        <v>0</v>
-      </c>
-      <c r="D4" s="11">
-        <v>1</v>
-      </c>
-      <c r="E4" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
-        <v>563</v>
-      </c>
-      <c r="B5" s="11" t="s">
+      <c r="E7" s="11">
+        <v>1</v>
+      </c>
+      <c r="F7" s="11">
+        <v>1</v>
+      </c>
+      <c r="G7" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Credit{CreditID =664 , CreditAbv =664-UX , CreditName =User Experince Design , IsSummer =0, IsSpring =1 , IsFall = 1},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="27">
+        <v>618</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="11">
-        <v>0</v>
-      </c>
-      <c r="D5" s="11">
-        <v>1</v>
-      </c>
-      <c r="E5" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>560</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="11">
-        <v>1</v>
-      </c>
-      <c r="D6" s="11">
-        <v>1</v>
-      </c>
-      <c r="E6" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
-        <v>664</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="11">
-        <v>0</v>
-      </c>
-      <c r="D7" s="11">
-        <v>1</v>
-      </c>
-      <c r="E7" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>618</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="11">
-        <v>1</v>
-      </c>
       <c r="D8" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="F8" s="11">
+        <v>0</v>
+      </c>
+      <c r="G8" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Credit{CreditID =618 , CreditAbv =618-PM , CreditName =ProjectManagement , IsSummer =1, IsSpring =0 , IsFall = 0},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="27">
         <v>555</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11">
+        <v>1</v>
+      </c>
+      <c r="F9" s="11">
+        <v>1</v>
+      </c>
+      <c r="G9" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Credit{CreditID =555 , CreditAbv =555-NS , CreditName =Network Security , IsSummer =0, IsSpring =1 , IsFall = 1},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="27">
+        <v>691</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="11">
+        <v>1</v>
+      </c>
+      <c r="E10" s="11">
+        <v>1</v>
+      </c>
+      <c r="F10" s="11">
+        <v>1</v>
+      </c>
+      <c r="G10" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Credit{CreditID =691 , CreditAbv =691-GDP1 , CreditName =GDP1 , IsSummer =1, IsSpring =1 , IsFall = 1},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="27">
+        <v>692</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0</v>
+      </c>
+      <c r="E11" s="11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Credit{CreditID =692 , CreditAbv =692-GDP2 , CreditName =GDP2 , IsSummer =0, IsSpring =1 , IsFall = 1},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="27">
+        <v>64</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="11">
+      <c r="D12" s="11">
         <v>0</v>
       </c>
-      <c r="D9" s="11">
-        <v>1</v>
-      </c>
-      <c r="E9" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
-        <v>691</v>
-      </c>
-      <c r="B10" s="11" t="s">
+      <c r="E12" s="11">
+        <v>1</v>
+      </c>
+      <c r="F12" s="11">
+        <v>1</v>
+      </c>
+      <c r="G12" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Credit{CreditID =64 , CreditAbv =Mobile , CreditName =643 or 644 Mobile , IsSummer =0, IsSpring =1 , IsFall = 1},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="27">
+        <v>10</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="11">
+      <c r="D13" s="11">
         <v>0</v>
       </c>
-      <c r="D10" s="11">
-        <v>1</v>
-      </c>
-      <c r="E10" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
-        <v>692</v>
-      </c>
-      <c r="B11" s="11" t="s">
+      <c r="E13" s="11">
+        <v>1</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1</v>
+      </c>
+      <c r="G13" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Credit{CreditID =10 , CreditAbv =E1 , CreditName =Elective1 , IsSummer =0, IsSpring =1 , IsFall = 1},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="27">
+        <v>20</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="11">
+      <c r="D14" s="11">
         <v>0</v>
       </c>
-      <c r="D11" s="11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
-        <v>6</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="11">
-        <v>0</v>
-      </c>
-      <c r="D12" s="11">
-        <v>1</v>
-      </c>
-      <c r="E12" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="11">
-        <v>0</v>
-      </c>
-      <c r="D13" s="11">
-        <v>1</v>
-      </c>
-      <c r="E13" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="11">
-        <v>0</v>
-      </c>
-      <c r="D14" s="11">
-        <v>1</v>
-      </c>
       <c r="E14" s="11">
         <v>1</v>
+      </c>
+      <c r="F14" s="11">
+        <v>1</v>
+      </c>
+      <c r="G14" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new Credit{CreditID =20 , CreditAbv =E2 , CreditName =Elective2 , IsSummer =0, IsSpring =1 , IsFall = 1},</v>
       </c>
     </row>
   </sheetData>
@@ -1150,7 +1276,7 @@
   <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1163,13 +1289,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1513,12 +1639,12 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="23.85546875" customWidth="1"/>
     <col min="4" max="4" width="27.5703125" customWidth="1"/>
@@ -1527,19 +1653,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1550,10 +1676,10 @@
         <v>533725</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="E2" s="17">
         <v>1</v>
@@ -1567,34 +1693,44 @@
         <v>533725</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="E3" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
+      <c r="A4" s="17">
+        <v>7253</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
-        <v>7253</v>
+        <v>7254</v>
       </c>
       <c r="B5" s="19">
         <v>534049</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="E5" s="17">
         <v>1</v>
@@ -1602,16 +1738,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
-        <v>7253</v>
+        <v>7255</v>
       </c>
       <c r="B6" s="21">
         <v>533767</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="E6" s="17">
         <v>1</v>
@@ -1619,16 +1755,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
-        <v>7255</v>
+        <v>7256</v>
       </c>
       <c r="B7" s="21">
         <v>533767</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="E7" s="17">
         <v>1</v>
@@ -1643,13 +1779,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="A1:E5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13" style="1" customWidth="1"/>
     <col min="2" max="3" width="14.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" style="1" customWidth="1"/>
@@ -1658,19 +1792,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="1">
-        <v>919</v>
+        <v>86</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1678,13 +1812,13 @@
         <v>533725</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1">
         <v>919569651</v>
@@ -1695,13 +1829,13 @@
         <v>534049</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1">
         <v>919569607</v>
@@ -1712,13 +1846,13 @@
         <v>533767</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E4" s="1">
         <v>919565612</v>
@@ -1733,32 +1867,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="A1:E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="13.28515625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="17.5703125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1775,7 +1911,7 @@
         <v>460</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1792,7 +1928,7 @@
         <v>356</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1809,7 +1945,7 @@
         <v>563</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1826,7 +1962,7 @@
         <v>542</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1843,7 +1979,7 @@
         <v>555</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1860,7 +1996,7 @@
         <v>560</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1877,7 +2013,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1891,10 +2027,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1911,7 +2047,7 @@
         <v>691</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1925,10 +2061,10 @@
         <v>4</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1942,10 +2078,10 @@
         <v>5</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1962,7 +2098,7 @@
         <v>692</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1979,7 +2115,7 @@
         <v>664</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2070,41 +2206,42 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="23.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E1" s="23" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G1" s="23" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2121,10 +2258,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="G2" s="24">
         <v>4</v>
@@ -2144,10 +2281,10 @@
         <v>2</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="G3" s="24">
         <v>3</v>
@@ -2167,10 +2304,10 @@
         <v>3</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G4" s="24">
         <v>0</v>
@@ -2190,10 +2327,10 @@
         <v>4</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="G5" s="24">
         <v>3</v>
@@ -2213,10 +2350,10 @@
         <v>5</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="G6" s="24">
         <v>2</v>
@@ -2236,10 +2373,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="G7" s="25">
         <v>4</v>
@@ -2259,10 +2396,10 @@
         <v>2</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="G8" s="25">
         <v>3</v>
@@ -2282,10 +2419,10 @@
         <v>3</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="G9" s="25">
         <v>2</v>
@@ -2305,10 +2442,10 @@
         <v>4</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="G10" s="25">
         <v>2</v>
@@ -2328,10 +2465,10 @@
         <v>5</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="G11" s="25">
         <v>2</v>
@@ -2351,10 +2488,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="G12" s="26">
         <v>4</v>
@@ -2374,10 +2511,10 @@
         <v>2</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="G13" s="26">
         <v>0</v>
@@ -2397,10 +2534,10 @@
         <v>3</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="G14" s="26">
         <v>3</v>
@@ -2420,10 +2557,10 @@
         <v>4</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="G15" s="26">
         <v>3</v>
@@ -2443,10 +2580,10 @@
         <v>5</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="G16" s="26">
         <v>3</v>

--- a/StudentDegreePlan.xlsx
+++ b/StudentDegreePlan.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S534049\Documents\44663\StudentDegreePlan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S534148\Documents\44663\StudentDegreePlan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Degree" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="99">
   <si>
     <t>NumberOfTerms</t>
   </si>
@@ -324,6 +324,9 @@
   </si>
   <si>
     <t>StudentTermID</t>
+  </si>
+  <si>
+    <t>String</t>
   </si>
 </sst>
 </file>
@@ -370,7 +373,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -401,8 +404,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -425,11 +440,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -504,6 +547,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -788,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,8 +894,8 @@
         <v>5</v>
       </c>
       <c r="E2" s="10" t="str">
-        <f>" new Credit{"&amp;$A$1&amp;" = "&amp;A2 &amp; " , "&amp;$B$1 &amp; " = '" &amp;B2&amp;"' , "&amp;$C$1&amp;" = '" &amp;C2&amp;"'},"</f>
-        <v xml:space="preserve"> new Credit{DegreeID = 1 , DegreeAbv = 'ACS + 2' , DegreeName = 'MS ACS+ 2'},</v>
+        <f>" new DegreeCredit{"&amp;$A$1&amp;" = "&amp;A2 &amp; " , "&amp;$B$1 &amp; " = '" &amp;B2&amp;"' , "&amp;$C$1&amp;" = '" &amp;C2&amp;"'},"</f>
+        <v xml:space="preserve"> new DegreeCredit{DegreeID = 1 , DegreeAbv = 'ACS + 2' , DegreeName = 'MS ACS+ 2'},</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1273,10 +1334,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,10 +1345,10 @@
     <col min="1" max="1" width="22.28515625" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" customWidth="1"/>
+    <col min="4" max="4" width="64.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>91</v>
       </c>
@@ -1297,8 +1358,11 @@
       <c r="C1" s="16" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1308,8 +1372,12 @@
       <c r="C2" s="15">
         <v>460</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="str">
+        <f>" new DegreeCredit{"&amp;$A$1&amp;" = "&amp;A2 &amp; ", "&amp;$B$1 &amp; " = '" &amp;B2&amp;"' , "&amp;$C$1&amp;" = '" &amp;C2&amp;"'}"</f>
+        <v xml:space="preserve"> new DegreeCredit{DegreeCreditID = 1, DegreeID = '1' , CreditID = '460'}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -1319,8 +1387,12 @@
       <c r="C3" s="15">
         <v>356</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="17" t="str">
+        <f t="shared" ref="D3:D14" si="0">" new DegreeCredit{"&amp;$A$1&amp;" = "&amp;A3 &amp; ", "&amp;$B$1 &amp; " = '" &amp;B3&amp;"' , "&amp;$C$1&amp;" = '" &amp;C3&amp;"'}"</f>
+        <v xml:space="preserve"> new DegreeCredit{DegreeCreditID = 2, DegreeID = '1' , CreditID = '356'}</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -1330,8 +1402,12 @@
       <c r="C4" s="15">
         <v>542</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new DegreeCredit{DegreeCreditID = 3, DegreeID = '1' , CreditID = '542'}</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -1341,8 +1417,12 @@
       <c r="C5" s="15">
         <v>563</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new DegreeCredit{DegreeCreditID = 4, DegreeID = '1' , CreditID = '563'}</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -1352,8 +1432,12 @@
       <c r="C6" s="15">
         <v>560</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new DegreeCredit{DegreeCreditID = 5, DegreeID = '1' , CreditID = '560'}</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -1363,8 +1447,12 @@
       <c r="C7" s="15">
         <v>618</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new DegreeCredit{DegreeCreditID = 6, DegreeID = '1' , CreditID = '618'}</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -1374,8 +1462,12 @@
       <c r="C8" s="15">
         <v>618</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new DegreeCredit{DegreeCreditID = 7, DegreeID = '1' , CreditID = '618'}</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -1385,8 +1477,12 @@
       <c r="C9" s="15">
         <v>555</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new DegreeCredit{DegreeCreditID = 8, DegreeID = '1' , CreditID = '555'}</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -1396,8 +1492,12 @@
       <c r="C10" s="15">
         <v>691</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new DegreeCredit{DegreeCreditID = 9, DegreeID = '1' , CreditID = '691'}</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -1407,8 +1507,12 @@
       <c r="C11" s="15">
         <v>692</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new DegreeCredit{DegreeCreditID = 10, DegreeID = '1' , CreditID = '692'}</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -1418,8 +1522,12 @@
       <c r="C12" s="15">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new DegreeCredit{DegreeCreditID = 11, DegreeID = '1' , CreditID = '6'}</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -1429,8 +1537,12 @@
       <c r="C13" s="15">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new DegreeCredit{DegreeCreditID = 12, DegreeID = '1' , CreditID = '10'}</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -1440,13 +1552,17 @@
       <c r="C14" s="15">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve"> new DegreeCredit{DegreeCreditID = 13, DegreeID = '1' , CreditID = '20'}</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1636,10 +1752,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1649,9 +1765,10 @@
     <col min="3" max="3" width="23.85546875" customWidth="1"/>
     <col min="4" max="4" width="27.5703125" customWidth="1"/>
     <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="136.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>92</v>
       </c>
@@ -1667,8 +1784,11 @@
       <c r="E1" s="22" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
         <v>7251</v>
       </c>
@@ -1684,8 +1804,12 @@
       <c r="E2" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="str">
+        <f>"new DegreePlan{"&amp;$A$1&amp;"="&amp;A2&amp;$B$1&amp;"="&amp;B2&amp;$C$1&amp;"="&amp;C2&amp;$D$1&amp;"="&amp;D2&amp;$E$1&amp;"="&amp;E2&amp;"}"</f>
+        <v>new DegreePlan{DegreePlanID=7251StudentID=533725DegereePlanAbv=Slow and easyDegreePlanName=Take a break in summerDegreeID=1}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>7252</v>
       </c>
@@ -1701,8 +1825,12 @@
       <c r="E3" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="17" t="str">
+        <f t="shared" ref="F3:F7" si="0">"new DegreePlan{"&amp;$A$1&amp;"="&amp;A3&amp;$B$1&amp;"="&amp;B3&amp;$C$1&amp;"="&amp;C3&amp;$D$1&amp;"="&amp;D3&amp;$E$1&amp;"="&amp;E3&amp;"}"</f>
+        <v>new DegreePlan{DegreePlanID=7252StudentID=533725DegereePlanAbv=Super FastDegreePlanName=No breakDegreeID=1}</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>7253</v>
       </c>
@@ -1718,8 +1846,12 @@
       <c r="E4" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlan{DegreePlanID=7253StudentID=S534049DegereePlanAbv=Slow and easyDegreePlanName=As fast as I CanDegreeID=1}</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>7254</v>
       </c>
@@ -1735,8 +1867,12 @@
       <c r="E5" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlan{DegreePlanID=7254StudentID=534049DegereePlanAbv=Slow and easyDegreePlanName=Take less courses per semesterDegreeID=1}</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>7255</v>
       </c>
@@ -1752,8 +1888,12 @@
       <c r="E6" s="17">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlan{DegreePlanID=7255StudentID=533767DegereePlanAbv=Super FastDegreePlanName=More subjects in semestersDegreeID=1}</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>7256</v>
       </c>
@@ -1768,6 +1908,10 @@
       </c>
       <c r="E7" s="17">
         <v>1</v>
+      </c>
+      <c r="F7" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>new DegreePlan{DegreePlanID=7256StudentID=533767DegereePlanAbv=Slow and ConsistentDegreePlanName=Take a break in summerDegreeID=1}</v>
       </c>
     </row>
   </sheetData>
@@ -1777,9 +1921,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1787,10 +1933,11 @@
     <col min="2" max="3" width="14.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="103.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
@@ -1806,8 +1953,11 @@
       <c r="E1" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>533725</v>
       </c>
@@ -1823,8 +1973,12 @@
       <c r="E2" s="1">
         <v>919569651</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="str">
+        <f>"new Student{"&amp;$A$1&amp;"="&amp;A2&amp;$B$1&amp;"="&amp;B2&amp;$C$1&amp;"="&amp;C2&amp;$D$1&amp;"="&amp;D2&amp;$E$1&amp;"="&amp;E2&amp;"}"</f>
+        <v>new Student{StudentID=533725FamilyName=MamidiGivenName=PrakashSID=S533725CatPawsID=919569651}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>534049</v>
       </c>
@@ -1840,8 +1994,12 @@
       <c r="E3" s="1">
         <v>919569607</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="27" t="str">
+        <f t="shared" ref="F3:F4" si="0">"new Student{"&amp;$A$1&amp;"="&amp;A3&amp;$B$1&amp;"="&amp;B3&amp;$C$1&amp;"="&amp;C3&amp;$D$1&amp;"="&amp;D3&amp;$E$1&amp;"="&amp;E3&amp;"}"</f>
+        <v>new Student{StudentID=534049FamilyName=AtmakuriGivenName=HarithaSID=S534049CatPawsID=919569607}</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>533767</v>
       </c>
@@ -1856,6 +2014,10 @@
       </c>
       <c r="E4" s="1">
         <v>919565612</v>
+      </c>
+      <c r="F4" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>new Student{StudentID=533767FamilyName=BadisaGivenName=SaiRamSID=S533767CatPawsID=919565612}</v>
       </c>
     </row>
   </sheetData>
@@ -1865,10 +2027,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1877,10 +2039,12 @@
     <col min="2" max="2" width="13.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
     <col min="4" max="4" width="17.5703125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="59.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>95</v>
       </c>
@@ -1896,8 +2060,11 @@
       <c r="E1" s="28" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="29">
         <v>1</v>
       </c>
@@ -1913,8 +2080,12 @@
       <c r="E2" s="27" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="str">
+        <f>"new Slot{"&amp;$A$1&amp;"="&amp;A2&amp;$B$1&amp;"="&amp;B2&amp;$C$1&amp;"="&amp;C2&amp;$D$1&amp;"="&amp;D2&amp;$E$1&amp;"="&amp;E2&amp;"}"</f>
+        <v>new Slot{SlotID=1DegreePlan=7251Term=1CreditID=460Status=C}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="29">
         <v>2</v>
       </c>
@@ -1930,8 +2101,12 @@
       <c r="E3" s="27" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="27" t="str">
+        <f t="shared" ref="F3:F14" si="0">"new Slot{"&amp;$A$1&amp;"="&amp;A3&amp;$B$1&amp;"="&amp;B3&amp;$C$1&amp;"="&amp;C3&amp;$D$1&amp;"="&amp;D3&amp;$E$1&amp;"="&amp;E3&amp;"}"</f>
+        <v>new Slot{SlotID=2DegreePlan=7251Term=1CreditID=356Status=C}</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
         <v>3</v>
       </c>
@@ -1947,8 +2122,12 @@
       <c r="E4" s="27" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>new Slot{SlotID=3DegreePlan=7251Term=1CreditID=563Status=C}</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
         <v>4</v>
       </c>
@@ -1964,8 +2143,12 @@
       <c r="E5" s="27" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>new Slot{SlotID=4DegreePlan=7251Term=1CreditID=542Status=C}</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <v>5</v>
       </c>
@@ -1981,8 +2164,12 @@
       <c r="E6" s="27" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>new Slot{SlotID=5DegreePlan=7251Term=2CreditID=555Status=A}</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="29">
         <v>6</v>
       </c>
@@ -1998,8 +2185,12 @@
       <c r="E7" s="27" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>new Slot{SlotID=6DegreePlan=7251Term=2CreditID=560Status=A}</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <v>7</v>
       </c>
@@ -2015,8 +2206,12 @@
       <c r="E8" s="27" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>new Slot{SlotID=7DegreePlan=7251Term=2CreditID=6Status=A}</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <v>8</v>
       </c>
@@ -2032,8 +2227,12 @@
       <c r="E9" s="27" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>new Slot{SlotID=8DegreePlan=7251Term=3CreditID=-Status=-}</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
         <v>9</v>
       </c>
@@ -2049,8 +2248,12 @@
       <c r="E10" s="27" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>new Slot{SlotID=9DegreePlan=7251Term=4CreditID=691Status=P}</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
         <v>10</v>
       </c>
@@ -2066,8 +2269,12 @@
       <c r="E11" s="27" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>new Slot{SlotID=10DegreePlan=7251Term=4CreditID=E1Status=P}</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
         <v>11</v>
       </c>
@@ -2083,8 +2290,12 @@
       <c r="E12" s="27" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>new Slot{SlotID=11DegreePlan=7251Term=5CreditID=E2Status=P}</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="29">
         <v>12</v>
       </c>
@@ -2100,8 +2311,12 @@
       <c r="E13" s="27" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>new Slot{SlotID=12DegreePlan=7251Term=5CreditID=692Status=P}</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
         <v>13</v>
       </c>
@@ -2117,11 +2332,15 @@
       <c r="E14" s="27" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="27" t="str">
+        <f t="shared" si="0"/>
+        <v>new Slot{SlotID=13DegreePlan=7251Term=5CreditID=664Status=P}</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -2203,10 +2422,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2218,10 +2437,11 @@
     <col min="5" max="5" width="15.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="23.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="126" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>97</v>
       </c>
@@ -2243,8 +2463,11 @@
       <c r="G1" s="23" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24">
         <v>1</v>
       </c>
@@ -2263,11 +2486,15 @@
       <c r="F2" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="24">
+      <c r="G2" s="30">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="33" t="str">
+        <f>"new Slot{"&amp;$A$1&amp;"="&amp;A2&amp;$B$1&amp;"="&amp;B2&amp;$C$1&amp;"="&amp;C2&amp;$D$1&amp;"="&amp;D2&amp;$E$1&amp;"="&amp;E2&amp;$F$1&amp;"="&amp;F2&amp;$G$1&amp;"="&amp;G2&amp;"}"</f>
+        <v>new Slot{StudentTermID=1StudentID=533725DegreePlanID=7251Term=1TermAbbr=F18TermName=Fall2018No.OfCoursesTaken=4}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24">
         <v>2</v>
       </c>
@@ -2286,11 +2513,15 @@
       <c r="F3" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="30">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="33" t="str">
+        <f t="shared" ref="H3:H16" si="0">"new Slot{"&amp;$A$1&amp;"="&amp;A3&amp;$B$1&amp;"="&amp;B3&amp;$C$1&amp;"="&amp;C3&amp;$D$1&amp;"="&amp;D3&amp;$E$1&amp;"="&amp;E3&amp;$F$1&amp;"="&amp;F3&amp;$G$1&amp;"="&amp;G3&amp;"}"</f>
+        <v>new Slot{StudentTermID=2StudentID=533725DegreePlanID=7251Term=2TermAbbr=s19TermName=Spring2019No.OfCoursesTaken=3}</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24">
         <v>3</v>
       </c>
@@ -2309,11 +2540,15 @@
       <c r="F4" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="30">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>new Slot{StudentTermID=3StudentID=533725DegreePlanID=7251Term=3TermAbbr=Su19TermName=Summer2019No.OfCoursesTaken=0}</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24">
         <v>4</v>
       </c>
@@ -2332,11 +2567,15 @@
       <c r="F5" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="30">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H5" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>new Slot{StudentTermID=4StudentID=533725DegreePlanID=7251Term=4TermAbbr=F19TermName=Fall2019No.OfCoursesTaken=3}</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24">
         <v>5</v>
       </c>
@@ -2355,11 +2594,15 @@
       <c r="F6" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="30">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="33" t="str">
+        <f t="shared" si="0"/>
+        <v>new Slot{StudentTermID=5StudentID=533725DegreePlanID=7251Term=5TermAbbr=s20TermName=Spring2020No.OfCoursesTaken=2}</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>6</v>
       </c>
@@ -2378,11 +2621,15 @@
       <c r="F7" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="31">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>new Slot{StudentTermID=6StudentID=534049DegreePlanID=7253Term=1TermAbbr=F19TermName=Fall2019No.OfCoursesTaken=4}</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>7</v>
       </c>
@@ -2401,11 +2648,15 @@
       <c r="F8" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="31">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H8" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>new Slot{StudentTermID=7StudentID=534049DegreePlanID=7253Term=2TermAbbr=s20TermName=Spring2020No.OfCoursesTaken=3}</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>8</v>
       </c>
@@ -2424,11 +2675,15 @@
       <c r="F9" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="31">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>new Slot{StudentTermID=8StudentID=534049DegreePlanID=7253Term=3TermAbbr=Su20TermName=Summer2020No.OfCoursesTaken=2}</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <v>9</v>
       </c>
@@ -2447,11 +2702,15 @@
       <c r="F10" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="31">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>new Slot{StudentTermID=9StudentID=534049DegreePlanID=7253Term=4TermAbbr=F20TermName=Fall2020No.OfCoursesTaken=2}</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>10</v>
       </c>
@@ -2470,11 +2729,15 @@
       <c r="F11" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="31">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>new Slot{StudentTermID=10StudentID=534049DegreePlanID=7253Term=5TermAbbr=S21TermName=Spring2021No.OfCoursesTaken=2}</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="26">
         <v>11</v>
       </c>
@@ -2493,11 +2756,15 @@
       <c r="F12" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="26">
+      <c r="G12" s="32">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>new Slot{StudentTermID=11StudentID=533726DegreePlanID=7254Term=1TermAbbr=S19TermName=Spring2019No.OfCoursesTaken=4}</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26">
         <v>12</v>
       </c>
@@ -2516,11 +2783,15 @@
       <c r="F13" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="32">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>new Slot{StudentTermID=12StudentID=533726DegreePlanID=7254Term=2TermAbbr=Su19TermName=Summer2019No.OfCoursesTaken=0}</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26">
         <v>13</v>
       </c>
@@ -2539,11 +2810,15 @@
       <c r="F14" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="32">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H14" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>new Slot{StudentTermID=13StudentID=533726DegreePlanID=7254Term=3TermAbbr=F19TermName=Fall2019No.OfCoursesTaken=3}</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="26">
         <v>14</v>
       </c>
@@ -2562,11 +2837,15 @@
       <c r="F15" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="32">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>new Slot{StudentTermID=14StudentID=533726DegreePlanID=7254Term=4TermAbbr=S20TermName=Spring2020No.OfCoursesTaken=3}</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="26">
         <v>15</v>
       </c>
@@ -2585,8 +2864,12 @@
       <c r="F16" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="32">
         <v>3</v>
+      </c>
+      <c r="H16" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>new Slot{StudentTermID=15StudentID=533726DegreePlanID=7254Term=5TermAbbr=Su20TermName=Summer2020No.OfCoursesTaken=3}</v>
       </c>
     </row>
   </sheetData>

--- a/StudentDegreePlan.xlsx
+++ b/StudentDegreePlan.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S534148\Documents\44663\StudentDegreePlan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533725\Documents\44663\StudentDegreePlan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Degree" sheetId="1" r:id="rId1"/>
@@ -30,17 +30,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="93">
   <si>
     <t>NumberOfTerms</t>
   </si>
   <si>
-    <t>ACS+NF</t>
-  </si>
-  <si>
-    <t>ACS</t>
-  </si>
-  <si>
     <t>CreditName</t>
   </si>
   <si>
@@ -221,15 +215,6 @@
     <t>MS ACS+ 2</t>
   </si>
   <si>
-    <t>MS ACS + DB</t>
-  </si>
-  <si>
-    <t>MS ACS + NF</t>
-  </si>
-  <si>
-    <t>MS ACS</t>
-  </si>
-  <si>
     <t>E1</t>
   </si>
   <si>
@@ -249,9 +234,6 @@
   </si>
   <si>
     <t>Slow and Consistent</t>
-  </si>
-  <si>
-    <t>ACS+DB(U,10)</t>
   </si>
   <si>
     <t>CreditAbv</t>
@@ -849,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,19 +847,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -885,10 +867,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D2" s="7">
         <v>5</v>
@@ -899,58 +881,25 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="7">
-        <v>5</v>
-      </c>
-      <c r="E3" s="10" t="str">
-        <f t="shared" ref="E3:E5" si="0">" new Credit{"&amp;$A$1&amp;" = "&amp;A3 &amp; " , "&amp;$B$1 &amp; " = '" &amp;B3&amp;"' , "&amp;$C$1&amp;" = '" &amp;C3&amp;"'},"</f>
-        <v xml:space="preserve"> new Credit{DegreeID = 2 , DegreeAbv = 'ACS+DB(U,10)' , DegreeName = 'MS ACS + DB'},</v>
-      </c>
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" s="7">
-        <v>5</v>
-      </c>
-      <c r="E4" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Credit{DegreeID = 3 , DegreeAbv = 'ACS+NF' , DegreeName = 'MS ACS + NF'},</v>
-      </c>
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="7">
-        <v>5</v>
-      </c>
-      <c r="E5" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> new Credit{DegreeID = 4 , DegreeAbv = 'ACS' , DegreeName = 'MS ACS'},</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
@@ -993,25 +942,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>6</v>
-      </c>
       <c r="G1" s="28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1019,10 +968,10 @@
         <v>460</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" s="11">
         <v>0</v>
@@ -1043,10 +992,10 @@
         <v>356</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" s="11">
         <v>0</v>
@@ -1070,7 +1019,7 @@
         <v>542</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" s="11">
         <v>0</v>
@@ -1094,7 +1043,7 @@
         <v>563</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" s="11">
         <v>0</v>
@@ -1118,7 +1067,7 @@
         <v>560</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" s="11">
         <v>1</v>
@@ -1139,10 +1088,10 @@
         <v>664</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7" s="11">
         <v>0</v>
@@ -1163,10 +1112,10 @@
         <v>618</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" s="11">
         <v>1</v>
@@ -1187,10 +1136,10 @@
         <v>555</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D9" s="11">
         <v>0</v>
@@ -1211,10 +1160,10 @@
         <v>691</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10" s="11">
         <v>1</v>
@@ -1235,10 +1184,10 @@
         <v>692</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D11" s="11">
         <v>0</v>
@@ -1259,10 +1208,10 @@
         <v>64</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12" s="11">
         <v>0</v>
@@ -1283,10 +1232,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D13" s="11">
         <v>0</v>
@@ -1307,10 +1256,10 @@
         <v>20</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D14" s="11">
         <v>0</v>
@@ -1350,16 +1299,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1770,22 +1719,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>92</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1796,10 +1745,10 @@
         <v>533725</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E2" s="17">
         <v>1</v>
@@ -1817,10 +1766,10 @@
         <v>533725</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E3" s="17">
         <v>1</v>
@@ -1835,13 +1784,13 @@
         <v>7253</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E4" s="17">
         <v>1</v>
@@ -1859,10 +1808,10 @@
         <v>534049</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E5" s="17">
         <v>1</v>
@@ -1880,10 +1829,10 @@
         <v>533767</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E6" s="17">
         <v>1</v>
@@ -1901,10 +1850,10 @@
         <v>533767</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E7" s="17">
         <v>1</v>
@@ -1939,22 +1888,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1962,13 +1911,13 @@
         <v>533725</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1">
         <v>919569651</v>
@@ -1983,13 +1932,13 @@
         <v>534049</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1">
         <v>919569607</v>
@@ -2004,13 +1953,13 @@
         <v>533767</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4" s="1">
         <v>919565612</v>
@@ -2046,22 +1995,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2078,7 +2027,7 @@
         <v>460</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1" t="str">
         <f>"new Slot{"&amp;$A$1&amp;"="&amp;A2&amp;$B$1&amp;"="&amp;B2&amp;$C$1&amp;"="&amp;C2&amp;$D$1&amp;"="&amp;D2&amp;$E$1&amp;"="&amp;E2&amp;"}"</f>
@@ -2099,7 +2048,7 @@
         <v>356</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F3" s="27" t="str">
         <f t="shared" ref="F3:F14" si="0">"new Slot{"&amp;$A$1&amp;"="&amp;A3&amp;$B$1&amp;"="&amp;B3&amp;$C$1&amp;"="&amp;C3&amp;$D$1&amp;"="&amp;D3&amp;$E$1&amp;"="&amp;E3&amp;"}"</f>
@@ -2120,7 +2069,7 @@
         <v>563</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F4" s="27" t="str">
         <f t="shared" si="0"/>
@@ -2141,7 +2090,7 @@
         <v>542</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F5" s="27" t="str">
         <f t="shared" si="0"/>
@@ -2162,7 +2111,7 @@
         <v>555</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F6" s="27" t="str">
         <f t="shared" si="0"/>
@@ -2183,7 +2132,7 @@
         <v>560</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F7" s="27" t="str">
         <f t="shared" si="0"/>
@@ -2204,7 +2153,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F8" s="27" t="str">
         <f t="shared" si="0"/>
@@ -2222,10 +2171,10 @@
         <v>3</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F9" s="27" t="str">
         <f t="shared" si="0"/>
@@ -2246,7 +2195,7 @@
         <v>691</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F10" s="27" t="str">
         <f t="shared" si="0"/>
@@ -2264,10 +2213,10 @@
         <v>4</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F11" s="27" t="str">
         <f t="shared" si="0"/>
@@ -2285,10 +2234,10 @@
         <v>5</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F12" s="27" t="str">
         <f t="shared" si="0"/>
@@ -2309,7 +2258,7 @@
         <v>692</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F13" s="27" t="str">
         <f t="shared" si="0"/>
@@ -2330,7 +2279,7 @@
         <v>664</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F14" s="27" t="str">
         <f t="shared" si="0"/>
@@ -2424,7 +2373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -2443,28 +2392,28 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C1" s="23" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E1" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>40</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2481,10 +2430,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G2" s="30">
         <v>4</v>
@@ -2508,10 +2457,10 @@
         <v>2</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G3" s="30">
         <v>3</v>
@@ -2535,10 +2484,10 @@
         <v>3</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G4" s="30">
         <v>0</v>
@@ -2562,10 +2511,10 @@
         <v>4</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G5" s="30">
         <v>3</v>
@@ -2589,10 +2538,10 @@
         <v>5</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G6" s="30">
         <v>2</v>
@@ -2616,10 +2565,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G7" s="31">
         <v>4</v>
@@ -2643,10 +2592,10 @@
         <v>2</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G8" s="31">
         <v>3</v>
@@ -2670,10 +2619,10 @@
         <v>3</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G9" s="31">
         <v>2</v>
@@ -2697,10 +2646,10 @@
         <v>4</v>
       </c>
       <c r="E10" s="25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G10" s="31">
         <v>2</v>
@@ -2724,10 +2673,10 @@
         <v>5</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G11" s="31">
         <v>2</v>
@@ -2751,10 +2700,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G12" s="32">
         <v>4</v>
@@ -2778,10 +2727,10 @@
         <v>2</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G13" s="32">
         <v>0</v>
@@ -2805,10 +2754,10 @@
         <v>3</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F14" s="26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G14" s="32">
         <v>3</v>
@@ -2832,10 +2781,10 @@
         <v>4</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G15" s="32">
         <v>3</v>
@@ -2859,10 +2808,10 @@
         <v>5</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G16" s="32">
         <v>3</v>

--- a/StudentDegreePlan.xlsx
+++ b/StudentDegreePlan.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533725\Documents\44663\StudentDegreePlan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S534148\Documents\44663\StudentDegreePlan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Degree" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>NumberOfTerms</t>
   </si>
@@ -300,9 +300,6 @@
   </si>
   <si>
     <t>SlotID</t>
-  </si>
-  <si>
-    <t>DegreePlan</t>
   </si>
   <si>
     <t>StudentTermID</t>
@@ -315,7 +312,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,8 +351,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,6 +400,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -543,10 +560,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -831,7 +851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -924,7 +944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G14"/>
     </sheetView>
   </sheetViews>
@@ -1286,7 +1306,7 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1703,8 +1723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1734,7 +1754,7 @@
         <v>83</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1873,7 +1893,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1979,7 +1999,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1998,7 +2018,7 @@
         <v>89</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C1" s="28" t="s">
         <v>30</v>
@@ -2031,7 +2051,7 @@
       </c>
       <c r="F2" s="1" t="str">
         <f>"new Slot{"&amp;$A$1&amp;"="&amp;A2&amp;$B$1&amp;"="&amp;B2&amp;$C$1&amp;"="&amp;C2&amp;$D$1&amp;"="&amp;D2&amp;$E$1&amp;"="&amp;E2&amp;"}"</f>
-        <v>new Slot{SlotID=1DegreePlan=7251Term=1CreditID=460Status=C}</v>
+        <v>new Slot{SlotID=1DegreePlanID=7251Term=1CreditID=460Status=C}</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2052,7 +2072,7 @@
       </c>
       <c r="F3" s="27" t="str">
         <f t="shared" ref="F3:F14" si="0">"new Slot{"&amp;$A$1&amp;"="&amp;A3&amp;$B$1&amp;"="&amp;B3&amp;$C$1&amp;"="&amp;C3&amp;$D$1&amp;"="&amp;D3&amp;$E$1&amp;"="&amp;E3&amp;"}"</f>
-        <v>new Slot{SlotID=2DegreePlan=7251Term=1CreditID=356Status=C}</v>
+        <v>new Slot{SlotID=2DegreePlanID=7251Term=1CreditID=356Status=C}</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2073,7 +2093,7 @@
       </c>
       <c r="F4" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>new Slot{SlotID=3DegreePlan=7251Term=1CreditID=563Status=C}</v>
+        <v>new Slot{SlotID=3DegreePlanID=7251Term=1CreditID=563Status=C}</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2094,7 +2114,7 @@
       </c>
       <c r="F5" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>new Slot{SlotID=4DegreePlan=7251Term=1CreditID=542Status=C}</v>
+        <v>new Slot{SlotID=4DegreePlanID=7251Term=1CreditID=542Status=C}</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2115,7 +2135,7 @@
       </c>
       <c r="F6" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>new Slot{SlotID=5DegreePlan=7251Term=2CreditID=555Status=A}</v>
+        <v>new Slot{SlotID=5DegreePlanID=7251Term=2CreditID=555Status=A}</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2136,7 +2156,7 @@
       </c>
       <c r="F7" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>new Slot{SlotID=6DegreePlan=7251Term=2CreditID=560Status=A}</v>
+        <v>new Slot{SlotID=6DegreePlanID=7251Term=2CreditID=560Status=A}</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2157,7 +2177,7 @@
       </c>
       <c r="F8" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>new Slot{SlotID=7DegreePlan=7251Term=2CreditID=6Status=A}</v>
+        <v>new Slot{SlotID=7DegreePlanID=7251Term=2CreditID=6Status=A}</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2178,7 +2198,7 @@
       </c>
       <c r="F9" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>new Slot{SlotID=8DegreePlan=7251Term=3CreditID=-Status=-}</v>
+        <v>new Slot{SlotID=8DegreePlanID=7251Term=3CreditID=-Status=-}</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2199,7 +2219,7 @@
       </c>
       <c r="F10" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>new Slot{SlotID=9DegreePlan=7251Term=4CreditID=691Status=P}</v>
+        <v>new Slot{SlotID=9DegreePlanID=7251Term=4CreditID=691Status=P}</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2220,7 +2240,7 @@
       </c>
       <c r="F11" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>new Slot{SlotID=10DegreePlan=7251Term=4CreditID=E1Status=P}</v>
+        <v>new Slot{SlotID=10DegreePlanID=7251Term=4CreditID=E1Status=P}</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2241,7 +2261,7 @@
       </c>
       <c r="F12" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>new Slot{SlotID=11DegreePlan=7251Term=5CreditID=E2Status=P}</v>
+        <v>new Slot{SlotID=11DegreePlanID=7251Term=5CreditID=E2Status=P}</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2262,7 +2282,7 @@
       </c>
       <c r="F13" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>new Slot{SlotID=12DegreePlan=7251Term=5CreditID=692Status=P}</v>
+        <v>new Slot{SlotID=12DegreePlanID=7251Term=5CreditID=692Status=P}</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2283,7 +2303,7 @@
       </c>
       <c r="F14" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>new Slot{SlotID=13DegreePlan=7251Term=5CreditID=664Status=P}</v>
+        <v>new Slot{SlotID=13DegreePlanID=7251Term=5CreditID=664Status=P}</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2373,8 +2393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2386,13 +2406,13 @@
     <col min="5" max="5" width="15.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="23.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="22.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="126" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="134.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>87</v>
@@ -2412,7 +2432,7 @@
       <c r="G1" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="36" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2439,8 +2459,8 @@
         <v>4</v>
       </c>
       <c r="H2" s="33" t="str">
-        <f>"new Slot{"&amp;$A$1&amp;"="&amp;A2&amp;$B$1&amp;"="&amp;B2&amp;$C$1&amp;"="&amp;C2&amp;$D$1&amp;"="&amp;D2&amp;$E$1&amp;"="&amp;E2&amp;$F$1&amp;"="&amp;F2&amp;$G$1&amp;"="&amp;G2&amp;"}"</f>
-        <v>new Slot{StudentTermID=1StudentID=533725DegreePlanID=7251Term=1TermAbbr=F18TermName=Fall2018No.OfCoursesTaken=4}</v>
+        <f>"new StudentTerm{"&amp;$A$1&amp;"="&amp;A2&amp;$B$1&amp;"="&amp;B2&amp;$C$1&amp;"="&amp;C2&amp;$D$1&amp;"="&amp;D2&amp;$E$1&amp;"="&amp;E2&amp;$F$1&amp;"="&amp;F2&amp;$G$1&amp;"="&amp;G2&amp;"}"</f>
+        <v>new StudentTerm{StudentTermID=1StudentID=533725DegreePlanID=7251Term=1TermAbbr=F18TermName=Fall2018No.OfCoursesTaken=4}</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2466,8 +2486,8 @@
         <v>3</v>
       </c>
       <c r="H3" s="33" t="str">
-        <f t="shared" ref="H3:H16" si="0">"new Slot{"&amp;$A$1&amp;"="&amp;A3&amp;$B$1&amp;"="&amp;B3&amp;$C$1&amp;"="&amp;C3&amp;$D$1&amp;"="&amp;D3&amp;$E$1&amp;"="&amp;E3&amp;$F$1&amp;"="&amp;F3&amp;$G$1&amp;"="&amp;G3&amp;"}"</f>
-        <v>new Slot{StudentTermID=2StudentID=533725DegreePlanID=7251Term=2TermAbbr=s19TermName=Spring2019No.OfCoursesTaken=3}</v>
+        <f t="shared" ref="H3:H16" si="0">"new StudentTerm{"&amp;$A$1&amp;"="&amp;A3&amp;$B$1&amp;"="&amp;B3&amp;$C$1&amp;"="&amp;C3&amp;$D$1&amp;"="&amp;D3&amp;$E$1&amp;"="&amp;E3&amp;$F$1&amp;"="&amp;F3&amp;$G$1&amp;"="&amp;G3&amp;"}"</f>
+        <v>new StudentTerm{StudentTermID=2StudentID=533725DegreePlanID=7251Term=2TermAbbr=s19TermName=Spring2019No.OfCoursesTaken=3}</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2494,7 +2514,7 @@
       </c>
       <c r="H4" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>new Slot{StudentTermID=3StudentID=533725DegreePlanID=7251Term=3TermAbbr=Su19TermName=Summer2019No.OfCoursesTaken=0}</v>
+        <v>new StudentTerm{StudentTermID=3StudentID=533725DegreePlanID=7251Term=3TermAbbr=Su19TermName=Summer2019No.OfCoursesTaken=0}</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2521,7 +2541,7 @@
       </c>
       <c r="H5" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>new Slot{StudentTermID=4StudentID=533725DegreePlanID=7251Term=4TermAbbr=F19TermName=Fall2019No.OfCoursesTaken=3}</v>
+        <v>new StudentTerm{StudentTermID=4StudentID=533725DegreePlanID=7251Term=4TermAbbr=F19TermName=Fall2019No.OfCoursesTaken=3}</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2548,7 +2568,7 @@
       </c>
       <c r="H6" s="33" t="str">
         <f t="shared" si="0"/>
-        <v>new Slot{StudentTermID=5StudentID=533725DegreePlanID=7251Term=5TermAbbr=s20TermName=Spring2020No.OfCoursesTaken=2}</v>
+        <v>new StudentTerm{StudentTermID=5StudentID=533725DegreePlanID=7251Term=5TermAbbr=s20TermName=Spring2020No.OfCoursesTaken=2}</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2573,9 +2593,9 @@
       <c r="G7" s="31">
         <v>4</v>
       </c>
-      <c r="H7" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>new Slot{StudentTermID=6StudentID=534049DegreePlanID=7253Term=1TermAbbr=F19TermName=Fall2019No.OfCoursesTaken=4}</v>
+      <c r="H7" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>new StudentTerm{StudentTermID=6StudentID=534049DegreePlanID=7253Term=1TermAbbr=F19TermName=Fall2019No.OfCoursesTaken=4}</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2600,9 +2620,9 @@
       <c r="G8" s="31">
         <v>3</v>
       </c>
-      <c r="H8" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>new Slot{StudentTermID=7StudentID=534049DegreePlanID=7253Term=2TermAbbr=s20TermName=Spring2020No.OfCoursesTaken=3}</v>
+      <c r="H8" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>new StudentTerm{StudentTermID=7StudentID=534049DegreePlanID=7253Term=2TermAbbr=s20TermName=Spring2020No.OfCoursesTaken=3}</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2627,9 +2647,9 @@
       <c r="G9" s="31">
         <v>2</v>
       </c>
-      <c r="H9" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>new Slot{StudentTermID=8StudentID=534049DegreePlanID=7253Term=3TermAbbr=Su20TermName=Summer2020No.OfCoursesTaken=2}</v>
+      <c r="H9" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>new StudentTerm{StudentTermID=8StudentID=534049DegreePlanID=7253Term=3TermAbbr=Su20TermName=Summer2020No.OfCoursesTaken=2}</v>
       </c>
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2654,9 +2674,9 @@
       <c r="G10" s="31">
         <v>2</v>
       </c>
-      <c r="H10" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>new Slot{StudentTermID=9StudentID=534049DegreePlanID=7253Term=4TermAbbr=F20TermName=Fall2020No.OfCoursesTaken=2}</v>
+      <c r="H10" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>new StudentTerm{StudentTermID=9StudentID=534049DegreePlanID=7253Term=4TermAbbr=F20TermName=Fall2020No.OfCoursesTaken=2}</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2681,9 +2701,9 @@
       <c r="G11" s="31">
         <v>2</v>
       </c>
-      <c r="H11" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>new Slot{StudentTermID=10StudentID=534049DegreePlanID=7253Term=5TermAbbr=S21TermName=Spring2021No.OfCoursesTaken=2}</v>
+      <c r="H11" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>new StudentTerm{StudentTermID=10StudentID=534049DegreePlanID=7253Term=5TermAbbr=S21TermName=Spring2021No.OfCoursesTaken=2}</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2708,9 +2728,9 @@
       <c r="G12" s="32">
         <v>4</v>
       </c>
-      <c r="H12" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v>new Slot{StudentTermID=11StudentID=533726DegreePlanID=7254Term=1TermAbbr=S19TermName=Spring2019No.OfCoursesTaken=4}</v>
+      <c r="H12" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>new StudentTerm{StudentTermID=11StudentID=533726DegreePlanID=7254Term=1TermAbbr=S19TermName=Spring2019No.OfCoursesTaken=4}</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2735,9 +2755,9 @@
       <c r="G13" s="32">
         <v>0</v>
       </c>
-      <c r="H13" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v>new Slot{StudentTermID=12StudentID=533726DegreePlanID=7254Term=2TermAbbr=Su19TermName=Summer2019No.OfCoursesTaken=0}</v>
+      <c r="H13" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>new StudentTerm{StudentTermID=12StudentID=533726DegreePlanID=7254Term=2TermAbbr=Su19TermName=Summer2019No.OfCoursesTaken=0}</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2762,9 +2782,9 @@
       <c r="G14" s="32">
         <v>3</v>
       </c>
-      <c r="H14" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v>new Slot{StudentTermID=13StudentID=533726DegreePlanID=7254Term=3TermAbbr=F19TermName=Fall2019No.OfCoursesTaken=3}</v>
+      <c r="H14" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>new StudentTerm{StudentTermID=13StudentID=533726DegreePlanID=7254Term=3TermAbbr=F19TermName=Fall2019No.OfCoursesTaken=3}</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2789,9 +2809,9 @@
       <c r="G15" s="32">
         <v>3</v>
       </c>
-      <c r="H15" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v>new Slot{StudentTermID=14StudentID=533726DegreePlanID=7254Term=4TermAbbr=S20TermName=Spring2020No.OfCoursesTaken=3}</v>
+      <c r="H15" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>new StudentTerm{StudentTermID=14StudentID=533726DegreePlanID=7254Term=4TermAbbr=S20TermName=Spring2020No.OfCoursesTaken=3}</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -2816,12 +2836,13 @@
       <c r="G16" s="32">
         <v>3</v>
       </c>
-      <c r="H16" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v>new Slot{StudentTermID=15StudentID=533726DegreePlanID=7254Term=5TermAbbr=Su20TermName=Summer2020No.OfCoursesTaken=3}</v>
+      <c r="H16" s="34" t="str">
+        <f t="shared" si="0"/>
+        <v>new StudentTerm{StudentTermID=15StudentID=533726DegreePlanID=7254Term=5TermAbbr=Su20TermName=Summer2020No.OfCoursesTaken=3}</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/StudentDegreePlan.xlsx
+++ b/StudentDegreePlan.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S534148\Documents\44663\StudentDegreePlan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s533725\Documents\44663\StudentDegreePlan\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Degree" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>NumberOfTerms</t>
   </si>
@@ -296,9 +296,6 @@
     <t>StudentID</t>
   </si>
   <si>
-    <t>DegereePlanAbv</t>
-  </si>
-  <si>
     <t>SlotID</t>
   </si>
   <si>
@@ -306,6 +303,9 @@
   </si>
   <si>
     <t>String</t>
+  </si>
+  <si>
+    <t>DegreePlanAbv</t>
   </si>
 </sst>
 </file>
@@ -1724,7 +1724,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1745,7 +1745,7 @@
         <v>87</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>18</v>
@@ -1754,7 +1754,7 @@
         <v>83</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="F2" t="str">
         <f>"new DegreePlan{"&amp;$A$1&amp;"="&amp;A2&amp;$B$1&amp;"="&amp;B2&amp;$C$1&amp;"="&amp;C2&amp;$D$1&amp;"="&amp;D2&amp;$E$1&amp;"="&amp;E2&amp;"}"</f>
-        <v>new DegreePlan{DegreePlanID=7251StudentID=533725DegereePlanAbv=Slow and easyDegreePlanName=Take a break in summerDegreeID=1}</v>
+        <v>new DegreePlan{DegreePlanID=7251StudentID=533725DegreePlanAbv=Slow and easyDegreePlanName=Take a break in summerDegreeID=1}</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1796,15 +1796,15 @@
       </c>
       <c r="F3" s="17" t="str">
         <f t="shared" ref="F3:F7" si="0">"new DegreePlan{"&amp;$A$1&amp;"="&amp;A3&amp;$B$1&amp;"="&amp;B3&amp;$C$1&amp;"="&amp;C3&amp;$D$1&amp;"="&amp;D3&amp;$E$1&amp;"="&amp;E3&amp;"}"</f>
-        <v>new DegreePlan{DegreePlanID=7252StudentID=533725DegereePlanAbv=Super FastDegreePlanName=No breakDegreeID=1}</v>
+        <v>new DegreePlan{DegreePlanID=7252StudentID=533725DegreePlanAbv=Super FastDegreePlanName=No breakDegreeID=1}</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>7253</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>21</v>
+      <c r="B4" s="20">
+        <v>534049</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>20</v>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="F4" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>new DegreePlan{DegreePlanID=7253StudentID=S534049DegereePlanAbv=Slow and easyDegreePlanName=As fast as I CanDegreeID=1}</v>
+        <v>new DegreePlan{DegreePlanID=7253StudentID=534049DegreePlanAbv=Slow and easyDegreePlanName=As fast as I CanDegreeID=1}</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1838,7 +1838,7 @@
       </c>
       <c r="F5" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>new DegreePlan{DegreePlanID=7254StudentID=534049DegereePlanAbv=Slow and easyDegreePlanName=Take less courses per semesterDegreeID=1}</v>
+        <v>new DegreePlan{DegreePlanID=7254StudentID=534049DegreePlanAbv=Slow and easyDegreePlanName=Take less courses per semesterDegreeID=1}</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F6" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>new DegreePlan{DegreePlanID=7255StudentID=533767DegereePlanAbv=Super FastDegreePlanName=More subjects in semestersDegreeID=1}</v>
+        <v>new DegreePlan{DegreePlanID=7255StudentID=533767DegreePlanAbv=Super FastDegreePlanName=More subjects in semestersDegreeID=1}</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1880,7 +1880,7 @@
       </c>
       <c r="F7" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>new DegreePlan{DegreePlanID=7256StudentID=533767DegereePlanAbv=Slow and ConsistentDegreePlanName=Take a break in summerDegreeID=1}</v>
+        <v>new DegreePlan{DegreePlanID=7256StudentID=533767DegreePlanAbv=Slow and ConsistentDegreePlanName=Take a break in summerDegreeID=1}</v>
       </c>
     </row>
   </sheetData>
@@ -1892,7 +1892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -2015,7 +2015,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1" s="28" t="s">
         <v>86</v>
@@ -2393,7 +2393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -2412,7 +2412,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>87</v>

--- a/StudentDegreePlan.xlsx
+++ b/StudentDegreePlan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Degree" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="93">
   <si>
     <t>NumberOfTerms</t>
   </si>
@@ -306,6 +306,9 @@
   </si>
   <si>
     <t>DegreePlanAbv</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -851,9 +854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -861,13 +862,13 @@
     <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" customWidth="1"/>
-    <col min="5" max="5" width="80.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="97.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>82</v>
@@ -896,8 +897,8 @@
         <v>5</v>
       </c>
       <c r="E2" s="10" t="str">
-        <f>" new DegreeCredit{"&amp;$A$1&amp;" = "&amp;A2 &amp; " , "&amp;$B$1 &amp; " = '" &amp;B2&amp;"' , "&amp;$C$1&amp;" = '" &amp;C2&amp;"'},"</f>
-        <v xml:space="preserve"> new DegreeCredit{DegreeID = 1 , DegreeAbv = 'ACS + 2' , DegreeName = 'MS ACS+ 2'},</v>
+        <f>" new Degree{"&amp;$A$1&amp;" = "&amp;A2 &amp; " , "&amp;$B$1 &amp; " = '" &amp;B2&amp;"' , "&amp;$C$1&amp;" = '" &amp;C2&amp;"', "&amp;$D$1&amp;"=  "&amp;D2&amp;"},"</f>
+        <v xml:space="preserve"> new Degree{ID = 1 , DegreeAbv = 'ACS + 2' , DegreeName = 'MS ACS+ 2', NumberOfTerms=  5},</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -944,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G14"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1002,8 +1003,8 @@
       <c r="F2" s="11">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="str">
-        <f>" new Credit{"&amp;$A$1&amp;" ="&amp;A2&amp;" , "&amp;$B$1&amp;" ="&amp;B2&amp;" , "&amp;$C$1&amp;" ="&amp;C2&amp;" , "&amp;$D$1&amp;" ="&amp;D2&amp;", "&amp;$E$1&amp;" ="&amp;E2&amp;" , "&amp;$F$1&amp;" = "&amp;F2&amp;"},"</f>
+      <c r="G2" s="27" t="str">
+        <f t="shared" ref="G2:G14" si="0">" new Credit{"&amp;$A$1&amp;" ="&amp;A2&amp;" , "&amp;$B$1&amp;" ="&amp;B2&amp;" , "&amp;$C$1&amp;" ="&amp;C2&amp;" , "&amp;$D$1&amp;" ="&amp;D2&amp;", "&amp;$E$1&amp;" ="&amp;E2&amp;" , "&amp;$F$1&amp;" = "&amp;F2&amp;"},"</f>
         <v xml:space="preserve"> new Credit{CreditID =460 , CreditAbv =DB , CreditName =Database , IsSummer =0, IsSpring =1 , IsFall = 1},</v>
       </c>
     </row>
@@ -1027,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="27" t="str">
-        <f t="shared" ref="G3:G14" si="0">" new Credit{"&amp;$A$1&amp;" ="&amp;A3&amp;" , "&amp;$B$1&amp;" ="&amp;B3&amp;" , "&amp;$C$1&amp;" ="&amp;C3&amp;" , "&amp;$D$1&amp;" ="&amp;D3&amp;", "&amp;$E$1&amp;" ="&amp;E3&amp;" , "&amp;$F$1&amp;" = "&amp;F3&amp;"},"</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> new Credit{CreditID =356 , CreditAbv =NF , CreditName =Network Fundamentals , IsSummer =0, IsSpring =1 , IsFall = 1},</v>
       </c>
     </row>
@@ -1892,7 +1893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>

--- a/StudentDegreePlan.xlsx
+++ b/StudentDegreePlan.xlsx
@@ -854,7 +854,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1894,7 +1896,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1907,23 +1909,23 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="28" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1992,6 +1994,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/StudentDegreePlan.xlsx
+++ b/StudentDegreePlan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Degree" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="93">
   <si>
     <t>NumberOfTerms</t>
   </si>
@@ -854,7 +854,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -947,7 +947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -1726,8 +1726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1737,7 +1737,7 @@
     <col min="3" max="3" width="23.85546875" customWidth="1"/>
     <col min="4" max="4" width="27.5703125" customWidth="1"/>
     <col min="5" max="5" width="23.140625" customWidth="1"/>
-    <col min="6" max="6" width="136.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="136.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1888,6 +1888,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2002,8 +2003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2236,15 +2237,15 @@
       <c r="C11" s="27">
         <v>4</v>
       </c>
-      <c r="D11" s="27" t="s">
-        <v>61</v>
+      <c r="D11" s="27">
+        <v>10</v>
       </c>
       <c r="E11" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F11" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>new Slot{SlotID=10DegreePlanID=7251Term=4CreditID=E1Status=P}</v>
+        <v>new Slot{SlotID=10DegreePlanID=7251Term=4CreditID=10Status=P}</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2257,15 +2258,15 @@
       <c r="C12" s="27">
         <v>5</v>
       </c>
-      <c r="D12" s="27" t="s">
-        <v>62</v>
+      <c r="D12" s="27">
+        <v>20</v>
       </c>
       <c r="E12" s="27" t="s">
         <v>35</v>
       </c>
       <c r="F12" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>new Slot{SlotID=11DegreePlanID=7251Term=5CreditID=E2Status=P}</v>
+        <v>new Slot{SlotID=11DegreePlanID=7251Term=5CreditID=20Status=P}</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
